--- a/cl_st2_ph1_eduardo/df_mean_dim_scores.xlsx
+++ b/cl_st2_ph1_eduardo/df_mean_dim_scores.xlsx
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.556825560209051</v>
+        <v>12.22970815667079</v>
       </c>
     </row>
     <row r="4">
